--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7343_DT_with_formulas.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7343_DT_with_formulas.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084EB28F-EFAC-4715-9BD8-8EFDB5C6FFC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11685" windowWidth="19440" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DT" r:id="rId1" sheetId="13"/>
-    <sheet name="Tests" r:id="rId2" sheetId="14"/>
+    <sheet name="DT" sheetId="13" r:id="rId1"/>
+    <sheet name="Tests" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_st1">#REF!</definedName>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>Value</t>
   </si>
@@ -136,9 +137,6 @@
   </si>
   <si>
     <t>To</t>
-  </si>
-  <si>
-    <t>Integer ret</t>
   </si>
   <si>
     <r>
@@ -183,34 +181,16 @@
     <t>=new DoubleRange(1.0,3.2)</t>
   </si>
   <si>
-    <t>Test dt6 dt7_Test</t>
-  </si>
-  <si>
     <t>Test dt7 dt7_Test</t>
   </si>
   <si>
-    <t>SimpleRules Double dt8(Double val)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
     <t>SimpleRules Double dt8(Integer val)</t>
   </si>
   <si>
-    <t>=new IntgerRange(1,3)</t>
-  </si>
-  <si>
     <t>4 .. 5</t>
   </si>
   <si>
     <t>=new IntRange(1,3)</t>
-  </si>
-  <si>
-    <t>Test dt7 dt8_Test</t>
   </si>
   <si>
     <t>Test dt8 dt8_Test</t>
@@ -219,12 +199,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="000000" theme="1"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,7 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="1F497D" theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,75 +407,75 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="6" numFmtId="0" quotePrefix="1" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="9" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="9" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="7" numFmtId="3" quotePrefix="1" xfId="1">
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="7" numFmtId="0" quotePrefix="1" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="7" numFmtId="3" xfId="1">
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="6" numFmtId="14" quotePrefix="1" xfId="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="20% - Accent1 10" xfId="0"/>
-    <cellStyle builtinId="0" name="Обычный" xfId="1"/>
+    <cellStyle name="20% - Accent1 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -513,10 +492,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -551,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +582,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,7 +687,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -717,13 +696,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -733,7 +712,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -742,7 +721,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -751,7 +730,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -761,12 +740,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -797,7 +776,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -816,7 +795,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -828,21 +807,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A2:M61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="55.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="65.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="65.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -875,18 +854,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="2"/>
@@ -1119,18 +1098,18 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2"/>
@@ -1280,15 +1259,15 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="3"/>
@@ -1299,10 +1278,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
         <v>3</v>
       </c>
@@ -1321,14 +1300,14 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="9"/>
       <c r="E26" s="2"/>
       <c r="F26" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="8">
         <v>1</v>
@@ -1346,12 +1325,10 @@
       <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="2"/>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="8">
         <v>2</v>
@@ -1476,10 +1453,10 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="18"/>
+      <c r="F33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="17"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1511,7 +1488,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -1529,7 +1506,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" s="8">
         <v>2</v>
@@ -1565,7 +1542,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" s="8">
         <v>3</v>
@@ -1601,13 +1578,13 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="42">
-      <c r="B42" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="23"/>
-    </row>
-    <row r="43">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="22"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>10</v>
       </c>
@@ -1623,37 +1600,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C45" s="16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C46" s="16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C47" s="16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="18"/>
-    </row>
-    <row r="50">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="16">
+        <v>3</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="16">
+        <v>4</v>
+      </c>
+      <c r="C46" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="16">
+        <v>7</v>
+      </c>
+      <c r="C47" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>0</v>
       </c>
@@ -1661,45 +1638,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>43</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C53" s="8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>42</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <v>6</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="23"/>
-    </row>
-    <row r="57">
+        <v>38</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="22"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>8</v>
       </c>
@@ -1707,7 +1684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>10</v>
       </c>
@@ -1715,32 +1692,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C59" s="16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C60" s="16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C61" s="16" t="n">
-        <v>3.0</v>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="16">
+        <v>3</v>
+      </c>
+      <c r="C59" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="16">
+        <v>4</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="16">
+        <v>7</v>
+      </c>
+      <c r="C61" s="16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -1750,19 +1730,16 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B56:C56"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B5:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
@@ -1770,23 +1747,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.0" collapsed="true"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1833,16 +1810,16 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1889,10 +1866,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1906,7 +1883,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
@@ -1921,10 +1898,10 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="23"/>
+      <c r="B22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
@@ -1975,6 +1952,6 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="C17:D17"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>